--- a/biology/Botanique/Œillet_de_poète/Œillet_de_poète.xlsx
+++ b/biology/Botanique/Œillet_de_poète/Œillet_de_poète.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C5%92illet_de_po%C3%A8te</t>
+          <t>Œillet_de_poète</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dianthus barbatus
 L'œillet de poète (Dianthus barbatus), ou œillet barbu, est une plante herbacée vivace à vie brève, cultivée comme bisannuelle, de la famille des Caryophyllaceae et du genre Dianthus.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C5%92illet_de_po%C3%A8te</t>
+          <t>Œillet_de_poète</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les tiges, de 20 à 35 cm de hauteur portent de longues feuilles à extrémité pointue avec, au sommet, un gros bouquet formé par de nombreuses petites fleurs réunies en corymbe. Ces fleurs parfumées, sont simples ou doubles selon les variétés, rarement de couleur unie, le plus souvent striées, panachées ou en cibles avec des coloris allant du blanc au violet-noir. Les « pourpre et blanc », « rose et rouge » sont spécifiques à l'œillet de poète. Certaines variétés présentent des fleurs changeant de couleur au fur et à mesure de leur épanouissement.
 Cette espèce est originaire d'Europe et d'Asie tempérée.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C5%92illet_de_po%C3%A8te</t>
+          <t>Œillet_de_poète</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Semer d'avril à juin puis repiquer et mettre en place à l'automne pour une floraison l'année suivante. Sur les plantes ainsi obtenues, récupérer les graines contenue dans les capsules. Le semis direct est possible. Multiplier par bouturage de juillet à aout afin de garder les caractéristiques de la plante ou de ses variétés.
 S'utilise en bordures, plates-bandes, potées, ou en fleurs à couper pour bouquets.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C5%92illet_de_po%C3%A8te</t>
+          <t>Œillet_de_poète</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Langage des fleurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le langage des fleurs, l'œillet de poète symbolise l'admiration[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le langage des fleurs, l'œillet de poète symbolise l'admiration.
 </t>
         </is>
       </c>
